--- a/stock_predictor_ai/data/company_sentiment_ready/HAS_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/HAS_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11468"/>
+  <dimension ref="A1:B11469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92185,6 +92185,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11469">
+      <c r="A11469" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B11469" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
